--- a/Documentos/ComponentesLab.xlsx
+++ b/Documentos/ComponentesLab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unizar\Documents\MASTER\2. Instrumentación Inteligente\Instrumentacion-Inteligente\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarc\OneDrive\Escritorio\Universidad\instrumentación\Instrumentacion-Inteligente\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A028E5-D84C-4D1B-8765-B7AF37ED1EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B7D9FC-774F-4ABC-B433-F79DFCE85005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6FC91F1C-65A9-4815-8C57-248ED56B5264}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FC91F1C-65A9-4815-8C57-248ED56B5264}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>C1 (pF)</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>Tolerancia</t>
+  </si>
+  <si>
+    <t>Caja</t>
+  </si>
+  <si>
+    <t>TINA</t>
+  </si>
+  <si>
+    <t>Comprobación</t>
+  </si>
+  <si>
+    <t>$A_0$</t>
+  </si>
+  <si>
+    <t>$f_c$ (kHz)</t>
+  </si>
+  <si>
+    <t>$f_s$ (kHz)</t>
   </si>
 </sst>
 </file>
@@ -106,10 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31F85BD-2A7C-466E-9386-E662169661B4}">
-  <dimension ref="B4:E10"/>
+  <dimension ref="B4:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -463,7 +482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -472,7 +491,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -480,7 +499,7 @@
         <v>1.3009999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -494,7 +513,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -508,7 +527,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -522,7 +541,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -534,6 +553,95 @@
       </c>
       <c r="E10" s="1">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>22.21</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.84</v>
+      </c>
+      <c r="D16">
+        <f>(C15-C16)/C15</f>
+        <v>3.1578947368420963E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>21.45</v>
+      </c>
+      <c r="F16">
+        <f>(E15-E16)/E15</f>
+        <v>3.4218820351193224E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.64</v>
+      </c>
+      <c r="H16">
+        <f>(G15-G16)/G15</f>
+        <v>-0.59223300970873771</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="D17">
+        <f>(C15-C17)/C15</f>
+        <v>4.7368421052631504E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>38.71</v>
+      </c>
+      <c r="F17">
+        <f>(E15-E17)/E15</f>
+        <v>-0.74290859972985135</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="H17">
+        <f>(G15-G17)/G15</f>
+        <v>-0.35922330097087368</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f>20*LOG10(C16)</f>
+        <v>5.2963564601907294</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f>20*LOG10(C17)</f>
+        <v>5.1535714973836901</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/ComponentesLab.xlsx
+++ b/Documentos/ComponentesLab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarc\OneDrive\Escritorio\Universidad\instrumentación\Instrumentacion-Inteligente\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B7D9FC-774F-4ABC-B433-F79DFCE85005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57026FDE-B32C-48A9-B0B9-D3EE2D56DAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FC91F1C-65A9-4815-8C57-248ED56B5264}"/>
   </bookViews>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31F85BD-2A7C-466E-9386-E662169661B4}">
   <dimension ref="B4:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +535,7 @@
         <v>7.49</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="E9" s="1">
         <v>0.05</v>
